--- a/biology/Médecine/Anika_Chebrolu/Anika_Chebrolu.xlsx
+++ b/biology/Médecine/Anika_Chebrolu/Anika_Chebrolu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anika Chebrolu est une élève américaine d'origine indienne, née en 2006, connue pour avoir remporté le titre de « meilleure jeune scientifique de l’année » 2020, décerné par le jury du Challenge Discovery 3M du jeune scientifique.
 En pleine pandémie de Covid-19, elle a identifié une protéine capable de se lier de manière sélective aux péplomères du SARS-CoV-2 pour en désactiver l'action.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anika Chebrolu est originaire de la ville de Frisco (Texas)[1].
-Son grand-père, professeur de chimie, l’a initiée très tôt aux sciences en général. Dès l'âge de huit ans, elle apprenait pour jouer « le tableau périodique des éléments et tout un tas de règles, de combinaisons possibles »[2].
-Par ailleurs, elle s'intéresse aux danses traditionnelles indiennes comme le bharata natyam qu'elle pratique depuis l'âge de six ans[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anika Chebrolu est originaire de la ville de Frisco (Texas).
+Son grand-père, professeur de chimie, l’a initiée très tôt aux sciences en général. Dès l'âge de huit ans, elle apprenait pour jouer « le tableau périodique des éléments et tout un tas de règles, de combinaisons possibles ».
+Par ailleurs, elle s'intéresse aux danses traditionnelles indiennes comme le bharata natyam qu'elle pratique depuis l'âge de six ans.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, elle entend parler du Challenge 3M et, après concertation avec ses professeurs, elle décide de s'y inscrire[2].
-Sa recherche devait porter sur la grippe : « Comment éradiquer définitivement ce virus saisonnier qui nous échappe encore malgré l’existence de vaccins ? » Mais la pandémie de Covid-19 l'amène à focaliser ses efforts sur le nouveau coronavirus[2].
-Elle a identifié, à l'aide de programmes informatiques, une protéine (parmi les 682 millions de molécules d'une base de données) qui pourrait intervenir dans un traitement contre la Covid-19[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, elle entend parler du Challenge 3M et, après concertation avec ses professeurs, elle décide de s'y inscrire.
+Sa recherche devait porter sur la grippe : « Comment éradiquer définitivement ce virus saisonnier qui nous échappe encore malgré l’existence de vaccins ? » Mais la pandémie de Covid-19 l'amène à focaliser ses efforts sur le nouveau coronavirus.
+Elle a identifié, à l'aide de programmes informatiques, une protéine (parmi les 682 millions de molécules d'une base de données) qui pourrait intervenir dans un traitement contre la Covid-19.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020 : Meilleure jeune scientifique de l’année, Discovery Education 3M Young Scientist Challenge[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2020 : Meilleure jeune scientifique de l’année, Discovery Education 3M Young Scientist Challenge</t>
         </is>
       </c>
     </row>
